--- a/data/Java/Java_1650_(UB-June2011).xlsx
+++ b/data/Java/Java_1650_(UB-June2011).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rombert\Documents\GitHub\labrel\data\Java\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="315" windowWidth="13395" windowHeight="12345"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Labour relations used" sheetId="2" r:id="rId2"/>
     <sheet name="Sources" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="173">
   <si>
     <t>NA</t>
   </si>
@@ -1836,9 +1841,6 @@
     <t>Administrators</t>
   </si>
   <si>
-    <t>Indonesa</t>
-  </si>
-  <si>
     <t>Spouses and other members of the household working for the market</t>
   </si>
   <si>
@@ -2776,7 +2778,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2811,7 +2813,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3024,7 +3026,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -3858,7 +3860,7 @@
         <v>6</v>
       </c>
       <c r="T7" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U7" s="26" t="s">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>99</v>
       </c>
       <c r="T9" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U9" s="26" t="s">
         <v>150</v>
@@ -4254,7 +4256,7 @@
         <v>99</v>
       </c>
       <c r="T10" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U10" s="26" t="s">
         <v>152</v>
@@ -4386,7 +4388,7 @@
         <v>99</v>
       </c>
       <c r="T11" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U11" s="26" t="s">
         <v>154</v>
@@ -4518,7 +4520,7 @@
         <v>99</v>
       </c>
       <c r="T12" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U12" s="26" t="s">
         <v>155</v>
@@ -4650,7 +4652,7 @@
         <v>99</v>
       </c>
       <c r="T13" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U13" s="26" t="s">
         <v>156</v>
@@ -4782,7 +4784,7 @@
         <v>99</v>
       </c>
       <c r="T14" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U14" s="26" t="s">
         <v>157</v>
@@ -4914,7 +4916,7 @@
         <v>99</v>
       </c>
       <c r="T15" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U15" s="26" t="s">
         <v>158</v>
@@ -5046,7 +5048,7 @@
         <v>99</v>
       </c>
       <c r="T16" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U16" s="26" t="s">
         <v>158</v>
@@ -5178,7 +5180,7 @@
         <v>99</v>
       </c>
       <c r="T17" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U17" s="26" t="s">
         <v>159</v>
@@ -5310,7 +5312,7 @@
         <v>99</v>
       </c>
       <c r="T18" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U18" s="26" t="s">
         <v>160</v>
@@ -5442,7 +5444,7 @@
         <v>99</v>
       </c>
       <c r="T19" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U19" s="26" t="s">
         <v>161</v>
@@ -5574,7 +5576,7 @@
         <v>99</v>
       </c>
       <c r="T20" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U20" s="26" t="s">
         <v>162</v>
@@ -5706,7 +5708,7 @@
         <v>99</v>
       </c>
       <c r="T21" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U21" s="26" t="s">
         <v>163</v>
@@ -5838,7 +5840,7 @@
         <v>99</v>
       </c>
       <c r="T22" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U22" s="26" t="s">
         <v>165</v>
@@ -5970,7 +5972,7 @@
         <v>99</v>
       </c>
       <c r="T23" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U23" s="26" t="s">
         <v>166</v>
@@ -6102,7 +6104,7 @@
         <v>99</v>
       </c>
       <c r="T24" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U24" s="26" t="s">
         <v>168</v>
@@ -6234,7 +6236,7 @@
         <v>99</v>
       </c>
       <c r="T25" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U25" s="26" t="s">
         <v>169</v>
@@ -6366,7 +6368,7 @@
         <v>99</v>
       </c>
       <c r="T26" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U26" s="26" t="s">
         <v>170</v>
@@ -6471,7 +6473,7 @@
         <v>143</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="L27" s="44">
         <v>413255</v>
@@ -6498,10 +6500,10 @@
         <v>99</v>
       </c>
       <c r="T27" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U27" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V27" s="43" t="s">
         <v>0</v>
@@ -20924,7 +20926,7 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>1</v>
       </c>
@@ -20940,7 +20942,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -20968,7 +20970,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="34.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>4</v>
       </c>
